--- a/bases/tabla6.xlsx
+++ b/bases/tabla6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867BA8D3-95D7-47D7-A48B-97D88224ADFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2048F2C4-1C2C-42BD-BF18-600940C19EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
+    <workbookView xWindow="1850" yWindow="1165" windowWidth="17350" windowHeight="8915" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,54 +63,27 @@
     <t>`as.factor()`</t>
   </si>
   <si>
-    <t>Coerciona un vector a factor.</t>
-  </si>
-  <si>
-    <t>Coerciona un factor a vector.</t>
-  </si>
-  <si>
     <t>`as.matrix()`</t>
   </si>
   <si>
     <t>`as.data.frame()`</t>
   </si>
   <si>
-    <t>Coerciona una estructura 2D cualquiera hacia matriz.</t>
-  </si>
-  <si>
-    <t>Coerciona una estructura 2D cualquiera hacia data frame.</t>
-  </si>
-  <si>
     <t>`as.list()`</t>
   </si>
   <si>
-    <t>Coerciona una estructura N dimensional hacia una lista.</t>
-  </si>
-  <si>
     <t>`as.Date()`</t>
   </si>
   <si>
-    <t>Coerciona un texto o elemento numérico hacia fecha (formato calendario).</t>
-  </si>
-  <si>
     <t>`as.POSIXct()`</t>
   </si>
   <si>
-    <t>Coerciona un texto o elemento numérico hacia fecha UTC (formato calendario).</t>
-  </si>
-  <si>
     <t>`as.dengrogram()`</t>
   </si>
   <si>
-    <t>Coerciona un objeto de ordenamiento hcluster hacia dendrogram.</t>
-  </si>
-  <si>
     <t>`as.hclust()`</t>
   </si>
   <si>
-    <t>Coerciona un objeto de ordenamiento dendrogram hacia hcluster.</t>
-  </si>
-  <si>
     <t>`as.formula()`</t>
   </si>
   <si>
@@ -120,12 +93,6 @@
     <t>`dplyr::as_tibble()`</t>
   </si>
   <si>
-    <t>Coerciona una estructura 2D hacia Tibble (del entorno de **tidyverse**).</t>
-  </si>
-  <si>
-    <t>Coerciona una matriz numérica hacia una imagen raster.</t>
-  </si>
-  <si>
     <t>`image()`</t>
   </si>
   <si>
@@ -141,10 +108,43 @@
     <t>Especiales</t>
   </si>
   <si>
-    <t>Coerciona números enteros hacia números romanos.</t>
-  </si>
-  <si>
-    <t>Coerciona un texto hacia una fórmula estadística. Identico a `formula()`.</t>
+    <t>Coerce un factor a vector.</t>
+  </si>
+  <si>
+    <t>Coerce un vector a factor.</t>
+  </si>
+  <si>
+    <t>Coerce una estructura 2D cualquiera hacia matriz.</t>
+  </si>
+  <si>
+    <t>Coerce una estructura 2D cualquiera hacia data frame.</t>
+  </si>
+  <si>
+    <t>Coerce una estructura N dimensional hacia una lista.</t>
+  </si>
+  <si>
+    <t>Coerce una estructura 2D hacia Tibble (del entorno de **tidyverse**).</t>
+  </si>
+  <si>
+    <t>Coerce un texto o elemento numérico hacia fecha (formato calendario).</t>
+  </si>
+  <si>
+    <t>Coerce un texto o elemento numérico hacia fecha UTC (formato calendario).</t>
+  </si>
+  <si>
+    <t>Coerce un objeto de ordenamiento hcluster hacia dendrogram.</t>
+  </si>
+  <si>
+    <t>Coerce un objeto de ordenamiento dendrogram hacia hcluster.</t>
+  </si>
+  <si>
+    <t>Coerce un texto hacia una fórmula estadística. Identico a `formula()`.</t>
+  </si>
+  <si>
+    <t>Coerce números enteros hacia números romanos.</t>
+  </si>
+  <si>
+    <t>Coerce una matriz numérica hacia una imagen raster.</t>
   </si>
 </sst>
 </file>
@@ -499,17 +499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="67.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -550,10 +550,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,150 +561,150 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
